--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cd34-Sell.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cd34-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>278.944029823705</v>
+        <v>278.978638</v>
       </c>
       <c r="H2">
-        <v>278.944029823705</v>
+        <v>557.957276</v>
       </c>
       <c r="I2">
-        <v>0.5454222988641262</v>
+        <v>0.535522688967824</v>
       </c>
       <c r="J2">
-        <v>0.5454222988641262</v>
+        <v>0.4392497582540043</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>3.23524656555596</v>
+        <v>0.0515145</v>
       </c>
       <c r="N2">
-        <v>3.23524656555596</v>
+        <v>0.103029</v>
       </c>
       <c r="O2">
-        <v>0.2029638330018236</v>
+        <v>0.001471145681204534</v>
       </c>
       <c r="P2">
-        <v>0.2029638330018236</v>
+        <v>0.0009812449722373931</v>
       </c>
       <c r="Q2">
-        <v>902.452714469481</v>
+        <v>14.371445047251</v>
       </c>
       <c r="R2">
-        <v>902.452714469481</v>
+        <v>57.485780189004</v>
       </c>
       <c r="S2">
-        <v>0.1107010003821292</v>
+        <v>0.0007878318910620535</v>
       </c>
       <c r="T2">
-        <v>0.1107010003821292</v>
+        <v>0.0004310116168432321</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>278.944029823705</v>
+        <v>278.978638</v>
       </c>
       <c r="H3">
-        <v>278.944029823705</v>
+        <v>557.957276</v>
       </c>
       <c r="I3">
-        <v>0.5454222988641262</v>
+        <v>0.535522688967824</v>
       </c>
       <c r="J3">
-        <v>0.5454222988641262</v>
+        <v>0.4392497582540043</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.7047685480081</v>
+        <v>16.93389433333333</v>
       </c>
       <c r="N3">
-        <v>12.7047685480081</v>
+        <v>50.801683</v>
       </c>
       <c r="O3">
-        <v>0.7970361669981765</v>
+        <v>0.4835963760583383</v>
       </c>
       <c r="P3">
-        <v>0.7970361669981765</v>
+        <v>0.4838336393146381</v>
       </c>
       <c r="Q3">
-        <v>3543.919336758841</v>
+        <v>4724.194777149251</v>
       </c>
       <c r="R3">
-        <v>3543.919336758841</v>
+        <v>28345.16866289551</v>
       </c>
       <c r="S3">
-        <v>0.434721298481997</v>
+        <v>0.2589768316818564</v>
       </c>
       <c r="T3">
-        <v>0.434721298481997</v>
+        <v>0.2125238091041099</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>53.8973048579944</v>
+        <v>278.978638</v>
       </c>
       <c r="H4">
-        <v>53.8973048579944</v>
+        <v>557.957276</v>
       </c>
       <c r="I4">
-        <v>0.1053859870627343</v>
+        <v>0.535522688967824</v>
       </c>
       <c r="J4">
-        <v>0.1053859870627343</v>
+        <v>0.4392497582540043</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.23524656555596</v>
+        <v>17.929651</v>
       </c>
       <c r="N4">
-        <v>3.23524656555596</v>
+        <v>53.788953</v>
       </c>
       <c r="O4">
-        <v>0.2029638330018236</v>
+        <v>0.512033090375614</v>
       </c>
       <c r="P4">
-        <v>0.2029638330018236</v>
+        <v>0.512284305323389</v>
       </c>
       <c r="Q4">
-        <v>174.3710704345489</v>
+        <v>5001.989615795338</v>
       </c>
       <c r="R4">
-        <v>174.3710704345489</v>
+        <v>30011.93769477203</v>
       </c>
       <c r="S4">
-        <v>0.02138954387893314</v>
+        <v>0.2742053373984536</v>
       </c>
       <c r="T4">
-        <v>0.02138954387893314</v>
+        <v>0.2250207572706192</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.8973048579944</v>
+        <v>278.978638</v>
       </c>
       <c r="H5">
-        <v>53.8973048579944</v>
+        <v>557.957276</v>
       </c>
       <c r="I5">
-        <v>0.1053859870627343</v>
+        <v>0.535522688967824</v>
       </c>
       <c r="J5">
-        <v>0.1053859870627343</v>
+        <v>0.4392497582540043</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>12.7047685480081</v>
+        <v>0.1015266666666667</v>
       </c>
       <c r="N5">
-        <v>12.7047685480081</v>
+        <v>0.30458</v>
       </c>
       <c r="O5">
-        <v>0.7970361669981765</v>
+        <v>0.002899387884843278</v>
       </c>
       <c r="P5">
-        <v>0.7970361669981765</v>
+        <v>0.002900810389735562</v>
       </c>
       <c r="Q5">
-        <v>684.7527835822515</v>
+        <v>28.32377118734667</v>
       </c>
       <c r="R5">
-        <v>684.7527835822515</v>
+        <v>169.94262712408</v>
       </c>
       <c r="S5">
-        <v>0.08399644318380114</v>
+        <v>0.001552687996452004</v>
       </c>
       <c r="T5">
-        <v>0.08399644318380114</v>
+        <v>0.00127418026243205</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,184 +782,184 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.139229399122395</v>
+        <v>57.571794</v>
       </c>
       <c r="H6">
-        <v>0.139229399122395</v>
+        <v>172.715382</v>
       </c>
       <c r="I6">
-        <v>0.0002722367601371558</v>
+        <v>0.1105138449044318</v>
       </c>
       <c r="J6">
-        <v>0.0002722367601371558</v>
+        <v>0.1359695321730118</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>3.23524656555596</v>
+        <v>0.0515145</v>
       </c>
       <c r="N6">
-        <v>3.23524656555596</v>
+        <v>0.103029</v>
       </c>
       <c r="O6">
-        <v>0.2029638330018236</v>
+        <v>0.001471145681204534</v>
       </c>
       <c r="P6">
-        <v>0.2029638330018236</v>
+        <v>0.0009812449722373931</v>
       </c>
       <c r="Q6">
-        <v>0.4504414353351484</v>
+        <v>2.965782182013</v>
       </c>
       <c r="R6">
-        <v>0.4504414353351484</v>
+        <v>17.794693092078</v>
       </c>
       <c r="S6">
-        <v>5.52542163214352E-05</v>
+        <v>0.0001625819656444626</v>
       </c>
       <c r="T6">
-        <v>5.52542163214352E-05</v>
+        <v>0.0001334194198222383</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.139229399122395</v>
+        <v>57.571794</v>
       </c>
       <c r="H7">
-        <v>0.139229399122395</v>
+        <v>172.715382</v>
       </c>
       <c r="I7">
-        <v>0.0002722367601371558</v>
+        <v>0.1105138449044318</v>
       </c>
       <c r="J7">
-        <v>0.0002722367601371558</v>
+        <v>0.1359695321730118</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.7047685480081</v>
+        <v>16.93389433333333</v>
       </c>
       <c r="N7">
-        <v>12.7047685480081</v>
+        <v>50.801683</v>
       </c>
       <c r="O7">
-        <v>0.7970361669981765</v>
+        <v>0.4835963760583383</v>
       </c>
       <c r="P7">
-        <v>0.7970361669981765</v>
+        <v>0.4838336393146381</v>
       </c>
       <c r="Q7">
-        <v>1.76887729092827</v>
+        <v>974.914676176434</v>
       </c>
       <c r="R7">
-        <v>1.76887729092827</v>
+        <v>8774.232085587906</v>
       </c>
       <c r="S7">
-        <v>0.0002169825438157206</v>
+        <v>0.05344409490005649</v>
       </c>
       <c r="T7">
-        <v>0.0002169825438157206</v>
+        <v>0.06578663358717705</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.341018578847393</v>
+        <v>57.571794</v>
       </c>
       <c r="H8">
-        <v>0.341018578847393</v>
+        <v>172.715382</v>
       </c>
       <c r="I8">
-        <v>0.0006667973404839508</v>
+        <v>0.1105138449044318</v>
       </c>
       <c r="J8">
-        <v>0.0006667973404839508</v>
+        <v>0.1359695321730118</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.23524656555596</v>
+        <v>17.929651</v>
       </c>
       <c r="N8">
-        <v>3.23524656555596</v>
+        <v>53.788953</v>
       </c>
       <c r="O8">
-        <v>0.2029638330018236</v>
+        <v>0.512033090375614</v>
       </c>
       <c r="P8">
-        <v>0.2029638330018236</v>
+        <v>0.512284305323389</v>
       </c>
       <c r="Q8">
-        <v>1.103279186006803</v>
+        <v>1032.242173863894</v>
       </c>
       <c r="R8">
-        <v>1.103279186006803</v>
+        <v>9290.179564775046</v>
       </c>
       <c r="S8">
-        <v>0.0001353357440600447</v>
+        <v>0.05658674553570753</v>
       </c>
       <c r="T8">
-        <v>0.0001353357440600447</v>
+        <v>0.06965505733439753</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.341018578847393</v>
+        <v>57.571794</v>
       </c>
       <c r="H9">
-        <v>0.341018578847393</v>
+        <v>172.715382</v>
       </c>
       <c r="I9">
-        <v>0.0006667973404839508</v>
+        <v>0.1105138449044318</v>
       </c>
       <c r="J9">
-        <v>0.0006667973404839508</v>
+        <v>0.1359695321730118</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>12.7047685480081</v>
+        <v>0.1015266666666667</v>
       </c>
       <c r="N9">
-        <v>12.7047685480081</v>
+        <v>0.30458</v>
       </c>
       <c r="O9">
-        <v>0.7970361669981765</v>
+        <v>0.002899387884843278</v>
       </c>
       <c r="P9">
-        <v>0.7970361669981765</v>
+        <v>0.002900810389735562</v>
       </c>
       <c r="Q9">
-        <v>4.332562114826779</v>
+        <v>5.845072338840001</v>
       </c>
       <c r="R9">
-        <v>4.332562114826779</v>
+        <v>52.60565104956</v>
       </c>
       <c r="S9">
-        <v>0.0005314615964239061</v>
+        <v>0.0003204225030233587</v>
       </c>
       <c r="T9">
-        <v>0.0005314615964239061</v>
+        <v>0.0003944218316149564</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>166.676336384112</v>
+        <v>0.2011773333333333</v>
       </c>
       <c r="H10">
-        <v>166.676336384112</v>
+        <v>0.6035320000000001</v>
       </c>
       <c r="I10">
-        <v>0.3259040554276355</v>
+        <v>0.0003861766165266135</v>
       </c>
       <c r="J10">
-        <v>0.3259040554276355</v>
+        <v>0.0004751282875976973</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>3.23524656555596</v>
+        <v>0.0515145</v>
       </c>
       <c r="N10">
-        <v>3.23524656555596</v>
+        <v>0.103029</v>
       </c>
       <c r="O10">
-        <v>0.2029638330018236</v>
+        <v>0.001471145681204534</v>
       </c>
       <c r="P10">
-        <v>0.2029638330018236</v>
+        <v>0.0009812449722373931</v>
       </c>
       <c r="Q10">
-        <v>539.2390448461482</v>
+        <v>0.010363549738</v>
       </c>
       <c r="R10">
-        <v>539.2390448461482</v>
+        <v>0.06218129842800001</v>
       </c>
       <c r="S10">
-        <v>0.06614673628043168</v>
+        <v>5.681220615853071E-07</v>
       </c>
       <c r="T10">
-        <v>0.06614673628043168</v>
+        <v>4.662172433730026E-07</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>166.676336384112</v>
+        <v>0.2011773333333333</v>
       </c>
       <c r="H11">
-        <v>166.676336384112</v>
+        <v>0.6035320000000001</v>
       </c>
       <c r="I11">
-        <v>0.3259040554276355</v>
+        <v>0.0003861766165266135</v>
       </c>
       <c r="J11">
-        <v>0.3259040554276355</v>
+        <v>0.0004751282875976973</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.7047685480081</v>
+        <v>16.93389433333333</v>
       </c>
       <c r="N11">
-        <v>12.7047685480081</v>
+        <v>50.801683</v>
       </c>
       <c r="O11">
-        <v>0.7970361669981765</v>
+        <v>0.4835963760583383</v>
       </c>
       <c r="P11">
-        <v>0.7970361669981765</v>
+        <v>0.4838336393146381</v>
       </c>
       <c r="Q11">
-        <v>2117.584276190084</v>
+        <v>3.406715704928444</v>
       </c>
       <c r="R11">
-        <v>2117.584276190084</v>
+        <v>30.660441344356</v>
       </c>
       <c r="S11">
-        <v>0.2597573191472038</v>
+        <v>0.0001867536122707409</v>
       </c>
       <c r="T11">
-        <v>0.2597573191472038</v>
+        <v>0.0002298830485297259</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,861 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.4297039276709</v>
+        <v>0.2011773333333333</v>
       </c>
       <c r="H12">
-        <v>11.4297039276709</v>
+        <v>0.6035320000000001</v>
       </c>
       <c r="I12">
-        <v>0.02234862454488288</v>
+        <v>0.0003861766165266135</v>
       </c>
       <c r="J12">
-        <v>0.02234862454488288</v>
+        <v>0.0004751282875976973</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.23524656555596</v>
+        <v>17.929651</v>
       </c>
       <c r="N12">
-        <v>3.23524656555596</v>
+        <v>53.788953</v>
       </c>
       <c r="O12">
-        <v>0.2029638330018236</v>
+        <v>0.512033090375614</v>
       </c>
       <c r="P12">
-        <v>0.2029638330018236</v>
+        <v>0.512284305323389</v>
       </c>
       <c r="Q12">
-        <v>36.97791037731874</v>
+        <v>3.607039375777334</v>
       </c>
       <c r="R12">
-        <v>36.97791037731874</v>
+        <v>32.46335438199601</v>
       </c>
       <c r="S12">
-        <v>0.004535962499948063</v>
+        <v>0.0001977352063909203</v>
       </c>
       <c r="T12">
-        <v>0.004535962499948063</v>
+        <v>0.0002434007647514777</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2011773333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.6035320000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.0003861766165266135</v>
+      </c>
+      <c r="J13">
+        <v>0.0004751282875976973</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1015266666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.30458</v>
+      </c>
+      <c r="O13">
+        <v>0.002899387884843278</v>
+      </c>
+      <c r="P13">
+        <v>0.002900810389735562</v>
+      </c>
+      <c r="Q13">
+        <v>0.02042486406222222</v>
+      </c>
+      <c r="R13">
+        <v>0.18382377656</v>
+      </c>
+      <c r="S13">
+        <v>1.119675803367031E-06</v>
+      </c>
+      <c r="T13">
+        <v>1.378257073120667E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3818393333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.145518</v>
+      </c>
+      <c r="I14">
+        <v>0.0007329723451454657</v>
+      </c>
+      <c r="J14">
+        <v>0.0009018047191405575</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.0515145</v>
+      </c>
+      <c r="N14">
+        <v>0.103029</v>
+      </c>
+      <c r="O14">
+        <v>0.001471145681204534</v>
+      </c>
+      <c r="P14">
+        <v>0.0009812449722373931</v>
+      </c>
+      <c r="Q14">
+        <v>0.019670262337</v>
+      </c>
+      <c r="R14">
+        <v>0.118021574022</v>
+      </c>
+      <c r="S14">
+        <v>1.078309100003111E-06</v>
+      </c>
+      <c r="T14">
+        <v>8.848913465966264E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3818393333333334</v>
+      </c>
+      <c r="H15">
+        <v>1.145518</v>
+      </c>
+      <c r="I15">
+        <v>0.0007329723451454657</v>
+      </c>
+      <c r="J15">
+        <v>0.0009018047191405575</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>16.93389433333333</v>
+      </c>
+      <c r="N15">
+        <v>50.801683</v>
+      </c>
+      <c r="O15">
+        <v>0.4835963760583383</v>
+      </c>
+      <c r="P15">
+        <v>0.4838336393146381</v>
+      </c>
+      <c r="Q15">
+        <v>6.466026922977111</v>
+      </c>
+      <c r="R15">
+        <v>58.194242306794</v>
+      </c>
+      <c r="S15">
+        <v>0.0003544627698633288</v>
+      </c>
+      <c r="T15">
+        <v>0.000436323459212891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3818393333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.145518</v>
+      </c>
+      <c r="I16">
+        <v>0.0007329723451454657</v>
+      </c>
+      <c r="J16">
+        <v>0.0009018047191405575</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>17.929651</v>
+      </c>
+      <c r="N16">
+        <v>53.788953</v>
+      </c>
+      <c r="O16">
+        <v>0.512033090375614</v>
+      </c>
+      <c r="P16">
+        <v>0.512284305323389</v>
+      </c>
+      <c r="Q16">
+        <v>6.846245984739334</v>
+      </c>
+      <c r="R16">
+        <v>61.616213862654</v>
+      </c>
+      <c r="S16">
+        <v>0.000375306095044694</v>
+      </c>
+      <c r="T16">
+        <v>0.0004619804040822744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3818393333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.145518</v>
+      </c>
+      <c r="I17">
+        <v>0.0007329723451454657</v>
+      </c>
+      <c r="J17">
+        <v>0.0009018047191405575</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1015266666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.30458</v>
+      </c>
+      <c r="O17">
+        <v>0.002899387884843278</v>
+      </c>
+      <c r="P17">
+        <v>0.002900810389735562</v>
+      </c>
+      <c r="Q17">
+        <v>0.03876687471555556</v>
+      </c>
+      <c r="R17">
+        <v>0.34890187244</v>
+      </c>
+      <c r="S17">
+        <v>2.125171137439929E-06</v>
+      </c>
+      <c r="T17">
+        <v>2.61596449879549E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>170.2029266666667</v>
+      </c>
+      <c r="H18">
+        <v>510.60878</v>
+      </c>
+      <c r="I18">
+        <v>0.3267186678240457</v>
+      </c>
+      <c r="J18">
+        <v>0.4019748336024425</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.0515145</v>
+      </c>
+      <c r="N18">
+        <v>0.103029</v>
+      </c>
+      <c r="O18">
+        <v>0.001471145681204534</v>
+      </c>
+      <c r="P18">
+        <v>0.0009812449722373931</v>
+      </c>
+      <c r="Q18">
+        <v>8.767918665770001</v>
+      </c>
+      <c r="R18">
+        <v>52.60751199462</v>
+      </c>
+      <c r="S18">
+        <v>0.0004806507571382437</v>
+      </c>
+      <c r="T18">
+        <v>0.0003944357844383594</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>170.2029266666667</v>
+      </c>
+      <c r="H19">
+        <v>510.60878</v>
+      </c>
+      <c r="I19">
+        <v>0.3267186678240457</v>
+      </c>
+      <c r="J19">
+        <v>0.4019748336024425</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>16.93389433333333</v>
+      </c>
+      <c r="N19">
+        <v>50.801683</v>
+      </c>
+      <c r="O19">
+        <v>0.4835963760583383</v>
+      </c>
+      <c r="P19">
+        <v>0.4838336393146381</v>
+      </c>
+      <c r="Q19">
+        <v>2882.198375397415</v>
+      </c>
+      <c r="R19">
+        <v>25939.78537857674</v>
+      </c>
+      <c r="S19">
+        <v>0.1579999637503165</v>
+      </c>
+      <c r="T19">
+        <v>0.1944889466547658</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>170.2029266666667</v>
+      </c>
+      <c r="H20">
+        <v>510.60878</v>
+      </c>
+      <c r="I20">
+        <v>0.3267186678240457</v>
+      </c>
+      <c r="J20">
+        <v>0.4019748336024425</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>17.929651</v>
+      </c>
+      <c r="N20">
+        <v>53.788953</v>
+      </c>
+      <c r="O20">
+        <v>0.512033090375614</v>
+      </c>
+      <c r="P20">
+        <v>0.512284305323389</v>
+      </c>
+      <c r="Q20">
+        <v>3051.679074311927</v>
+      </c>
+      <c r="R20">
+        <v>27465.11166880734</v>
+      </c>
+      <c r="S20">
+        <v>0.1672907691693498</v>
+      </c>
+      <c r="T20">
+        <v>0.2059253983895122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>170.2029266666667</v>
+      </c>
+      <c r="H21">
+        <v>510.60878</v>
+      </c>
+      <c r="I21">
+        <v>0.3267186678240457</v>
+      </c>
+      <c r="J21">
+        <v>0.4019748336024425</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.1015266666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.30458</v>
+      </c>
+      <c r="O21">
+        <v>0.002899387884843278</v>
+      </c>
+      <c r="P21">
+        <v>0.002900810389735562</v>
+      </c>
+      <c r="Q21">
+        <v>17.28013580137778</v>
+      </c>
+      <c r="R21">
+        <v>155.5212222124</v>
+      </c>
+      <c r="S21">
+        <v>0.0009472841472411733</v>
+      </c>
+      <c r="T21">
+        <v>0.001166052773726189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>13.610064</v>
+      </c>
+      <c r="H22">
+        <v>27.220128</v>
+      </c>
+      <c r="I22">
+        <v>0.0261256493420266</v>
+      </c>
+      <c r="J22">
+        <v>0.0214289429638033</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.0515145</v>
+      </c>
+      <c r="N22">
+        <v>0.103029</v>
+      </c>
+      <c r="O22">
+        <v>0.001471145681204534</v>
+      </c>
+      <c r="P22">
+        <v>0.0009812449722373931</v>
+      </c>
+      <c r="Q22">
+        <v>0.7011156419279999</v>
+      </c>
+      <c r="R22">
+        <v>2.804462567712</v>
+      </c>
+      <c r="S22">
+        <v>3.843463619818652E-05</v>
+      </c>
+      <c r="T22">
+        <v>2.102704254359384E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>13.610064</v>
+      </c>
+      <c r="H23">
+        <v>27.220128</v>
+      </c>
+      <c r="I23">
+        <v>0.0261256493420266</v>
+      </c>
+      <c r="J23">
+        <v>0.0214289429638033</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>16.93389433333333</v>
+      </c>
+      <c r="N23">
+        <v>50.801683</v>
+      </c>
+      <c r="O23">
+        <v>0.4835963760583383</v>
+      </c>
+      <c r="P23">
+        <v>0.4838336393146381</v>
+      </c>
+      <c r="Q23">
+        <v>230.471385645904</v>
+      </c>
+      <c r="R23">
+        <v>1382.828313875424</v>
+      </c>
+      <c r="S23">
+        <v>0.01263426934397498</v>
+      </c>
+      <c r="T23">
+        <v>0.01036804346084276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>11.4297039276709</v>
-      </c>
-      <c r="H13">
-        <v>11.4297039276709</v>
-      </c>
-      <c r="I13">
-        <v>0.02234862454488288</v>
-      </c>
-      <c r="J13">
-        <v>0.02234862454488288</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>12.7047685480081</v>
-      </c>
-      <c r="N13">
-        <v>12.7047685480081</v>
-      </c>
-      <c r="O13">
-        <v>0.7970361669981765</v>
-      </c>
-      <c r="P13">
-        <v>0.7970361669981765</v>
-      </c>
-      <c r="Q13">
-        <v>145.2117429733179</v>
-      </c>
-      <c r="R13">
-        <v>145.2117429733179</v>
-      </c>
-      <c r="S13">
-        <v>0.01781266204493481</v>
-      </c>
-      <c r="T13">
-        <v>0.01781266204493481</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>13.610064</v>
+      </c>
+      <c r="H24">
+        <v>27.220128</v>
+      </c>
+      <c r="I24">
+        <v>0.0261256493420266</v>
+      </c>
+      <c r="J24">
+        <v>0.0214289429638033</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>17.929651</v>
+      </c>
+      <c r="N24">
+        <v>53.788953</v>
+      </c>
+      <c r="O24">
+        <v>0.512033090375614</v>
+      </c>
+      <c r="P24">
+        <v>0.512284305323389</v>
+      </c>
+      <c r="Q24">
+        <v>244.023697607664</v>
+      </c>
+      <c r="R24">
+        <v>1464.142185645984</v>
+      </c>
+      <c r="S24">
+        <v>0.01337719697066751</v>
+      </c>
+      <c r="T24">
+        <v>0.0109777111600265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>13.610064</v>
+      </c>
+      <c r="H25">
+        <v>27.220128</v>
+      </c>
+      <c r="I25">
+        <v>0.0261256493420266</v>
+      </c>
+      <c r="J25">
+        <v>0.0214289429638033</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.1015266666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.30458</v>
+      </c>
+      <c r="O25">
+        <v>0.002899387884843278</v>
+      </c>
+      <c r="P25">
+        <v>0.002900810389735562</v>
+      </c>
+      <c r="Q25">
+        <v>1.38178443104</v>
+      </c>
+      <c r="R25">
+        <v>8.290706586240001</v>
+      </c>
+      <c r="S25">
+        <v>7.574839118593569E-05</v>
+      </c>
+      <c r="T25">
+        <v>6.216130039045138E-05</v>
       </c>
     </row>
   </sheetData>
